--- a/ui/src/upload-files/files/division/import.division.max.success.xlsx
+++ b/ui/src/upload-files/files/division/import.division.max.success.xlsx
@@ -110,7 +110,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">template22;</t>
+      <t xml:space="preserve">template22</t>
     </r>
   </si>
   <si>
@@ -238,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,6 +253,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -347,7 +351,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,7 +395,7 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -408,25 +412,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
